--- a/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.230720203951562</v>
+        <v>1540</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.613129381771829</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>207</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>212</v>
       </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.314814814814815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>95.83333333333334</v>
+      </c>
+      <c r="P2" t="n">
+        <v>98.14814814814815</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9787234042553191</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>98.18053341879943</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>89.73063386937345</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>1.973684210526316</v>
+        <v>3478</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.229977116704805</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.35593220338983</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>583</v>
       </c>
-      <c r="H3" t="n">
-        <v>585</v>
-      </c>
       <c r="I3" t="n">
+        <v>584</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>1.016949152542373</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.847457627118644</v>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>98.8135593220339</v>
+      </c>
+      <c r="P3" t="n">
+        <v>98.98305084745763</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.9881355932203389</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9940323955669225</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>99.88077558839849</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>97.44373260015809</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>6.08564988730278</v>
+        <v>1323</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.583020285499624</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>175</v>
+      </c>
+      <c r="I4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" t="n">
         <v>10.8695652173913</v>
       </c>
-      <c r="G4" t="n">
-        <v>175</v>
-      </c>
-      <c r="H4" t="n">
-        <v>180</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>8.695652173913043</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>95.10869565217391</v>
+      </c>
+      <c r="P4" t="n">
+        <v>97.28260869565217</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9548022598870056</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.9184782608695652</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.9362880886426593</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>91.1205359295039</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>80.1753578793536</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>5.709624796084829</v>
+        <v>2977</v>
       </c>
       <c r="D5" t="n">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.262642740619902</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>12.38532110091743</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>387</v>
       </c>
-      <c r="H5" t="n">
-        <v>420</v>
-      </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>401</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.944954128440367</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.73394495412844</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+      <c r="O5" t="n">
+        <v>88.76146788990825</v>
+      </c>
+      <c r="P5" t="n">
+        <v>91.97247706422019</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.9288990825688074</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9631391200951248</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>95.82936239762772</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>76.80587554715362</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>22.19251336898396</v>
+        <v>1489</v>
       </c>
       <c r="D6" t="n">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
+        <v>242</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.64438502673797</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>187</v>
       </c>
-      <c r="H6" t="n">
-        <v>195</v>
-      </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="J6" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
+        <v>29</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19.19191919191919</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.67676767676768</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="P6" t="n">
+        <v>95.95959595959596</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9317073170731708</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.9646464646464646</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9478908188585607</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>92.11043325139292</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>69.82191249779768</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1.827160493827161</v>
+        <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.135802469135802</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>267</v>
+      </c>
+      <c r="I7" t="n">
+        <v>267</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.3731343283582089</v>
       </c>
-      <c r="G7" t="n">
-        <v>267</v>
-      </c>
-      <c r="H7" t="n">
-        <v>268</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
+        <v>0.3731343283582089</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>99.6268656716418</v>
+      </c>
+      <c r="P7" t="n">
+        <v>99.6268656716418</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="S7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>99.83537074545205</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>99.05923192937803</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>26.90631808278867</v>
+        <v>2540</v>
       </c>
       <c r="D8" t="n">
-        <v>741</v>
+        <v>214</v>
       </c>
       <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.96877269426289</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>26.34989200863931</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>392</v>
       </c>
-      <c r="H8" t="n">
-        <v>411</v>
-      </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
+        <v>18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.935205183585314</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.719222462203025</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>84.66522678185746</v>
+      </c>
+      <c r="P8" t="n">
+        <v>84.88120950323975</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.8833693304535637</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.9380733944954128</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>97.85228490173181</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>81.15221016821879</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.994789199431549</v>
+        <v>2109</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8526764566556134</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>324</v>
       </c>
-      <c r="H9" t="n">
-        <v>328</v>
-      </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="P9" t="n">
+        <v>98.7878787878788</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9909365558912386</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9939393939393939</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9924357034795764</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.58653450817198</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>93.61647778000919</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
@@ -760,16 +760,16 @@
         <v>3065</v>
       </c>
       <c r="B5" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0326</v>
+        <v>0.0313</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -830,58 +830,58 @@
         <v>1496</v>
       </c>
       <c r="B6" t="n">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1664</v>
+        <v>0.1651</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2172</v>
+        <v>0.2071</v>
       </c>
       <c r="M6" t="n">
         <v>0.1869</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8475</v>
+        <v>0.852</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8591</v>
+        <v>0.8597</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9545</v>
+        <v>0.9596</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9692</v>
+        <v>0.9694</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8979</v>
+        <v>0.9026</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9108000000000001</v>
+        <v>0.9113</v>
       </c>
       <c r="T6" t="n">
         <v>0.9211</v>
@@ -970,64 +970,64 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0897</v>
+        <v>0.0882</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1015</v>
+        <v>0.0886</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.0756</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9581</v>
+        <v>0.9689</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9603</v>
+        <v>0.9754</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9395</v>
+        <v>0.9417</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9416</v>
+        <v>0.9478</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9487</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9508</v>
+        <v>0.9614</v>
       </c>
       <c r="T8" t="n">
         <v>0.9785</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8115</v>
+        <v>0.823</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Llama/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0261</v>
+        <v>0.0186</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3478</v>
+        <v>3462</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0123</v>
+        <v>0.0052</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0458</v>
+        <v>0.0447</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>2979</v>
+        <v>2971</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0313</v>
+        <v>0.0301</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1651</v>
+        <v>0.1646</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0114</v>
+        <v>0.0005</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2542</v>
+        <v>2524</v>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0882</v>
+        <v>0.0808</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2109</v>
+        <v>2096</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
